--- a/Products with Python/Venu 3 series/Venu 3/PR/Venu3_PR1_45.xlsx
+++ b/Products with Python/Venu 3 series/Venu 3/PR/Venu3_PR1_45.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\Products with Python\Venu 3 series\Venu 3\PR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF09A5D4-4BC0-4D85-A0B7-15259A3B1DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099D7A30-247E-41D9-987A-9CCB4BD04EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-15960" windowWidth="18270" windowHeight="28620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PID Summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17537" uniqueCount="3172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17597" uniqueCount="3202">
   <si>
     <t>Part1: PID Summary</t>
   </si>
@@ -9560,6 +9560,96 @@
   </si>
   <si>
     <t>Speaker freq</t>
+  </si>
+  <si>
+    <t>16548</t>
+  </si>
+  <si>
+    <t>Venu3_OHRM_FPC_ATE</t>
+  </si>
+  <si>
+    <t>Input ESN</t>
+  </si>
+  <si>
+    <t>1/1056</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>4/1056</t>
+  </si>
+  <si>
+    <t>7/1056</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>AFE Part ID-1</t>
+  </si>
+  <si>
+    <t>17/1056</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>AFE Power Consumption data</t>
+  </si>
+  <si>
+    <t>5/1056</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>D102 PD dark noise SpO2 dev</t>
+  </si>
+  <si>
+    <t>3/1056</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>D104 PD dark noise SpO2 dev</t>
+  </si>
+  <si>
+    <t>16549</t>
+  </si>
+  <si>
+    <t>Venu3_ECG_ATE</t>
+  </si>
+  <si>
+    <t>Check 1907IOP</t>
+  </si>
+  <si>
+    <t>3/1055</t>
+  </si>
+  <si>
+    <t>ECG RLD 10Hz 500mV Test</t>
+  </si>
+  <si>
+    <t>1/1055</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Motor Resonant Frequency</t>
+  </si>
+  <si>
+    <t>12/1055</t>
+  </si>
+  <si>
+    <t>1.14</t>
   </si>
 </sst>
 </file>
@@ -9699,15 +9789,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -10042,19 +10132,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -10798,28 +10888,28 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="15" t="s">
         <v>103</v>
       </c>
     </row>
@@ -11589,10 +11679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C87437E-6A1C-4018-BC1B-F3570B5015BA}">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11669,13 +11759,13 @@
       <c r="A4" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>3117</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -11709,13 +11799,13 @@
       <c r="A6" s="6">
         <v>19341</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>3116</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -11795,7 +11885,7 @@
       <c r="C10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>3118</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -11855,7 +11945,7 @@
       <c r="C13" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>522</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -14606,22 +14696,22 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="12" t="s">
         <v>3119</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="12" t="s">
         <v>3120</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="C151" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D151" s="12" t="s">
         <v>3124</v>
       </c>
-      <c r="E151" s="14" t="s">
+      <c r="E151" s="12" t="s">
         <v>3125</v>
       </c>
-      <c r="F151" s="14" t="s">
+      <c r="F151" s="12" t="s">
         <v>3126</v>
       </c>
     </row>
@@ -14646,62 +14736,62 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="12" t="s">
         <v>3119</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="12" t="s">
         <v>3120</v>
       </c>
-      <c r="C153" s="14" t="s">
+      <c r="C153" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="12" t="s">
         <v>3127</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="E153" s="12" t="s">
         <v>3128</v>
       </c>
-      <c r="F153" s="14" t="s">
+      <c r="F153" s="12" t="s">
         <v>3129</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="12" t="s">
         <v>3119</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="12" t="s">
         <v>3120</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C154" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="D154" s="14" t="s">
+      <c r="D154" s="12" t="s">
         <v>3130</v>
       </c>
-      <c r="E154" s="14" t="s">
+      <c r="E154" s="12" t="s">
         <v>3131</v>
       </c>
-      <c r="F154" s="14" t="s">
+      <c r="F154" s="12" t="s">
         <v>3132</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="12" t="s">
         <v>3133</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="12" t="s">
         <v>3134</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="C155" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="D155" s="12" t="s">
         <v>3135</v>
       </c>
-      <c r="E155" s="14" t="s">
+      <c r="E155" s="12" t="s">
         <v>3136</v>
       </c>
-      <c r="F155" s="15" t="s">
+      <c r="F155" s="13" t="s">
         <v>3137</v>
       </c>
     </row>
@@ -14721,7 +14811,7 @@
       <c r="E156" s="3" t="s">
         <v>3140</v>
       </c>
-      <c r="F156" s="15" t="s">
+      <c r="F156" s="13" t="s">
         <v>3141</v>
       </c>
     </row>
@@ -14746,22 +14836,22 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="12" t="s">
         <v>3133</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="12" t="s">
         <v>3134</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C158" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="D158" s="12" t="s">
         <v>3145</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="E158" s="12" t="s">
         <v>3146</v>
       </c>
-      <c r="F158" s="14" t="s">
+      <c r="F158" s="12" t="s">
         <v>3126</v>
       </c>
     </row>
@@ -14806,22 +14896,22 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="12" t="s">
         <v>3133</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="12" t="s">
         <v>3134</v>
       </c>
-      <c r="C161" s="14" t="s">
+      <c r="C161" s="12" t="s">
         <v>3152</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="D161" s="12" t="s">
         <v>3153</v>
       </c>
-      <c r="E161" s="14" t="s">
+      <c r="E161" s="12" t="s">
         <v>3150</v>
       </c>
-      <c r="F161" s="14" t="s">
+      <c r="F161" s="12" t="s">
         <v>3151</v>
       </c>
     </row>
@@ -14846,22 +14936,22 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="12" t="s">
         <v>3133</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="12" t="s">
         <v>3134</v>
       </c>
-      <c r="C163" s="14" t="s">
+      <c r="C163" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D163" s="12" t="s">
         <v>3156</v>
       </c>
-      <c r="E163" s="14" t="s">
+      <c r="E163" s="12" t="s">
         <v>3155</v>
       </c>
-      <c r="F163" s="14" t="s">
+      <c r="F163" s="12" t="s">
         <v>3132</v>
       </c>
     </row>
@@ -14886,22 +14976,22 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="12" t="s">
         <v>3133</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="12" t="s">
         <v>3134</v>
       </c>
-      <c r="C165" s="14" t="s">
+      <c r="C165" s="12" t="s">
         <v>3159</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D165" s="12" t="s">
         <v>3160</v>
       </c>
-      <c r="E165" s="14" t="s">
+      <c r="E165" s="12" t="s">
         <v>3155</v>
       </c>
-      <c r="F165" s="14" t="s">
+      <c r="F165" s="12" t="s">
         <v>3132</v>
       </c>
     </row>
@@ -14926,22 +15016,22 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="12" t="s">
         <v>3133</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="12" t="s">
         <v>3134</v>
       </c>
-      <c r="C167" s="14" t="s">
+      <c r="C167" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="12" t="s">
         <v>3164</v>
       </c>
-      <c r="E167" s="14" t="s">
+      <c r="E167" s="12" t="s">
         <v>3162</v>
       </c>
-      <c r="F167" s="14" t="s">
+      <c r="F167" s="12" t="s">
         <v>3163</v>
       </c>
     </row>
@@ -14966,22 +15056,22 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="12" t="s">
         <v>3133</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="12" t="s">
         <v>3134</v>
       </c>
-      <c r="C169" s="14" t="s">
+      <c r="C169" s="12" t="s">
         <v>3166</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D169" s="12" t="s">
         <v>3167</v>
       </c>
-      <c r="E169" s="14" t="s">
+      <c r="E169" s="12" t="s">
         <v>3162</v>
       </c>
-      <c r="F169" s="14" t="s">
+      <c r="F169" s="12" t="s">
         <v>3163</v>
       </c>
     </row>
@@ -15006,23 +15096,223 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="14" t="s">
+      <c r="A171" s="12" t="s">
         <v>3133</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="12" t="s">
         <v>3134</v>
       </c>
-      <c r="C171" s="14" t="s">
+      <c r="C171" s="12" t="s">
         <v>3170</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D171" s="12" t="s">
         <v>3171</v>
       </c>
-      <c r="E171" s="14" t="s">
+      <c r="E171" s="12" t="s">
         <v>3162</v>
       </c>
-      <c r="F171" s="14" t="s">
+      <c r="F171" s="12" t="s">
         <v>3163</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>3175</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="12" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>3177</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>3178</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="12" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>3181</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>3185</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="12" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>3191</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>3175</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="12" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>3194</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>3195</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>3196</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>3197</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="12" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>3199</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>3201</v>
       </c>
     </row>
   </sheetData>
